--- a/be/upload/TestUpload.xlsx
+++ b/be/upload/TestUpload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguyenmanhcuong\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C98FCFFA-8867-464A-BFD7-45064FA6D9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F51825E-2A01-41D5-95FC-5AD1A8F7CF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{98793155-E6DC-4E07-AAC0-2E78EFBFF9AF}"/>
+    <workbookView xWindow="-24135" yWindow="2070" windowWidth="21600" windowHeight="11385" xr2:uid="{98793155-E6DC-4E07-AAC0-2E78EFBFF9AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>STT</t>
   </si>
@@ -36,24 +36,6 @@
     <t>Mã Sinh Viên</t>
   </si>
   <si>
-    <t>Điểm Chuyên Cần</t>
-  </si>
-  <si>
-    <t>Điểm giữa kì</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Điểm Cuối Kì </t>
-  </si>
-  <si>
-    <t>CT030209</t>
-  </si>
-  <si>
-    <t>CT030210</t>
-  </si>
-  <si>
-    <t>CT03011</t>
-  </si>
-  <si>
     <t>Nguyễn Mạnh Cường</t>
   </si>
   <si>
@@ -66,7 +48,10 @@
     <t>8,5</t>
   </si>
   <si>
-    <t>6,5</t>
+    <t>CT0302091122245</t>
+  </si>
+  <si>
+    <t>Điểm Cuối Kì</t>
   </si>
 </sst>
 </file>
@@ -418,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E381671-1FB7-4A2A-97AD-AD43C0645C30}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +419,7 @@
     <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,72 +430,48 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
+      <c r="B3">
+        <v>6655115</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-      <c r="F3">
-        <v>8</v>
-      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
+      <c r="B4">
+        <v>332321321321</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>7</v>
-      </c>
-      <c r="F4">
         <v>9</v>
       </c>
     </row>

--- a/be/upload/TestUpload.xlsx
+++ b/be/upload/TestUpload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguyenmanhcuong\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F51825E-2A01-41D5-95FC-5AD1A8F7CF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFD7A73-437C-4C5B-B194-45D218140902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24135" yWindow="2070" windowWidth="21600" windowHeight="11385" xr2:uid="{98793155-E6DC-4E07-AAC0-2E78EFBFF9AF}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{98793155-E6DC-4E07-AAC0-2E78EFBFF9AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,12 @@
     <t>Mã Sinh Viên</t>
   </si>
   <si>
+    <t>Điểm Chuyên Cần</t>
+  </si>
+  <si>
+    <t>Điểm giữa kì</t>
+  </si>
+  <si>
     <t>Nguyễn Mạnh Cường</t>
   </si>
   <si>
@@ -45,26 +51,26 @@
     <t>Phạm Văn Tài</t>
   </si>
   <si>
-    <t>8,5</t>
-  </si>
-  <si>
-    <t>CT0302091122245</t>
-  </si>
-  <si>
-    <t>Điểm Cuối Kì</t>
+    <t>CT030234</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,8 +93,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E381671-1FB7-4A2A-97AD-AD43C0645C30}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,7 +428,7 @@
     <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,52 +439,65 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6655115</v>
+        <v>664422555</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>332321321321</v>
+        <v>332321321</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>9</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>